--- a/pred_ohlcv/54_21/2020-01-11 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 AOA ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-9309.422728890724</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5166176.256328891</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5167368.394628891</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-5140034.643128891</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-5143866.877628891</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-5079701.932428891</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-5079701.932428891</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-5042757.257128891</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-5068167.023328891</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-5098754.663128891</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-5098754.663128891</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-7118462.384628891</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-7477424.269528891</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-5938336.10624185</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1244778.593441849</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1244778.593441849</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1568228.333541849</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1568228.333541849</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1547353.083741849</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>21682.86815815057</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>19977.26755815057</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-535425.4735418495</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-513703.1356418495</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-514097.7124418495</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-449579.7183418495</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-485972.7183418495</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-449580.4744418495</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1575891.46944185</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1575059.35344185</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1575580.18674185</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1575059.35344185</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-2691149.35344185</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-2689407.35344185</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4859576.23344185</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-7027517.47234185</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-3995323.712341851</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-4539181.858741851</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-4759184.11874185</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-20498722.97928393</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-20497924.27708393</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-20407894.75008393</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-20963228.87718393</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-20962967.87718393</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-20096965.48188392</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-20095964.48188392</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-20095964.48188392</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-20095964.48188392</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-20844781.18158393</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-20844520.18158393</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-21950762.91198393</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-11 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 AOA ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-7165.000695557392</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-9309.422728890724</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-667043.5116288906</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-667043.5116288906</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1244778.593441849</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1244778.593441849</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1568228.333541849</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1568228.333541849</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1547353.083741849</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>524320.7862581506</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1307.615558150574</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>19977.26755815057</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-535425.4735418495</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-513703.1356418495</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-514097.7124418495</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-449579.7183418495</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-485972.7183418495</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-449580.4744418495</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1575891.46944185</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1575580.18674185</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-2691149.35344185</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-2689407.35344185</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4859576.23344185</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-7027517.47234185</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-3995323.712341851</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-6793147.592341851</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-3664359.095841851</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2357558.242241851</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-4539181.858741851</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-4538921.858741851</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-4759184.11874185</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-10119005.30504185</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-9313268.933641855</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-9312960.833941855</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-10102162.83394185</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-10102162.83394185</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-20498722.97928393</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-20497924.27708393</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-20407894.75008393</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-20096965.48188392</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-20095964.48188392</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-20095964.48188392</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-20844781.18158393</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-20844520.18158393</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-21950762.91198393</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
